--- a/detection_times.xlsx
+++ b/detection_times.xlsx
@@ -74,15 +74,9 @@
     <t>Upper Tail</t>
   </si>
   <si>
-    <t>T^2</t>
-  </si>
-  <si>
     <t>AD-PCA</t>
   </si>
   <si>
-    <t>infty</t>
-  </si>
-  <si>
     <t>Single-State</t>
   </si>
   <si>
@@ -90,6 +84,25 @@
   </si>
   <si>
     <t>Latent or Error Faults</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Inf</t>
   </si>
 </sst>
 </file>
@@ -99,7 +112,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,13 +120,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFFFB7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -164,86 +198,101 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -260,6 +309,15 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFAFFFB7"/>
+      <color rgb="FFA7FFAF"/>
+      <color rgb="FFB9FFCC"/>
+      <color rgb="FF84FFB1"/>
+      <color rgb="FF99FF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -536,675 +594,679 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M18"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+    </row>
+    <row r="2" spans="1:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="29">
         <v>3.0059999999999998</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="29">
         <v>3</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="29">
         <f>252.1 - 81</f>
         <v>171.1</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="29">
         <v>369.9</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="29">
         <v>281.7</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="29">
         <f>720.3 - 21</f>
         <v>699.3</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="29">
         <v>869.4</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="29">
         <v>16.72</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="29">
         <f>55.08 - 21</f>
         <v>34.08</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11" t="s">
+    <row r="4" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="30">
         <v>3</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="30">
         <v>3</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="30">
         <f>1113 - 81</f>
         <v>1032</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="30">
         <v>621.1</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="30">
         <v>384</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="30">
         <f>974 - 21</f>
         <v>953</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="30">
         <v>1225</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="30">
         <v>54</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="30">
         <f>212 - 21</f>
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="13" t="s">
+    <row r="5" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="31">
         <v>3</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="31">
         <v>96.97</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="10">
         <f>473.2 - 81</f>
         <v>392.2</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="31">
         <v>492.6</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="31">
         <v>570.6</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="31">
         <f>956.8 - 21</f>
         <v>935.8</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="10">
         <v>1351</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="10">
         <v>679</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="10">
         <f>1272 - 21</f>
         <v>1251</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11" t="s">
+    <row r="6" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="25"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="30">
         <v>3</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="30">
         <v>233</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="8">
         <f>1435 - 81</f>
         <v>1354</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="30">
         <v>533</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="30">
         <v>692</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="30">
         <f>1105 - 21</f>
         <v>1084</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="8">
         <v>1518</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="8">
         <v>999.6</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="8">
         <f>1453 - 21</f>
         <v>1432</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="15" t="s">
+    <row r="7" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="17">
-        <v>18</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="17">
+      <c r="E7" s="12">
+        <v>18</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="12">
         <v>1372</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="12">
         <v>738.2</v>
       </c>
-      <c r="M7" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11" t="s">
+      <c r="M7" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="19">
-        <v>18</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="19">
+      <c r="E8" s="14">
+        <v>18</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="14">
         <v>1518</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="14">
         <v>1116</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="M8" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="10">
         <v>5.1820000000000004</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="10">
         <v>26</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="10">
         <f>203 - 81</f>
         <v>122</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="10">
         <v>1114</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="10">
         <v>191.7</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="10">
         <f>102.8 - 21</f>
         <v>81.8</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="10">
         <v>660.9</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="10">
         <v>87.49</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="10">
         <f>30.7 - 21</f>
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22" t="s">
+    <row r="10" spans="1:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="17">
         <v>5</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="17">
         <v>26</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="17">
         <f>571 - 81</f>
         <v>490</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="17">
         <v>1406</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="17">
         <v>1514</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="17">
         <f>216 - 21</f>
         <v>195</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="17">
         <v>1459</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="17">
         <v>258</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="17">
         <f>44 - 21</f>
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="29">
         <v>9.9480000000000004</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="29">
         <v>2.9969999999999999</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1171</v>
+      </c>
+      <c r="I11" s="29">
+        <v>304.7</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1060</v>
+      </c>
+      <c r="L11" s="29">
+        <v>17.52</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="30">
+        <v>32</v>
+      </c>
+      <c r="F12" s="30">
+        <v>3</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1568</v>
+      </c>
+      <c r="I12" s="30">
+        <v>401.8</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1481</v>
+      </c>
+      <c r="L12" s="30">
+        <v>48</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="8">
-        <v>1171</v>
-      </c>
-      <c r="I11" s="8">
-        <v>304.7</v>
-      </c>
-      <c r="J11" s="24" t="s">
+      <c r="D13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="31">
+        <v>2.9660000000000002</v>
+      </c>
+      <c r="F13" s="31">
+        <v>4.0890000000000004</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="31">
+        <v>85.82</v>
+      </c>
+      <c r="I13" s="31">
+        <v>93.38</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="10">
+        <v>435.4</v>
+      </c>
+      <c r="L13" s="31">
+        <v>95.24</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="25"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="30">
+        <v>3</v>
+      </c>
+      <c r="F14" s="30">
+        <v>5</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="30">
+        <v>156.5</v>
+      </c>
+      <c r="I14" s="30">
+        <v>173</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="8">
+        <v>942.3</v>
+      </c>
+      <c r="L14" s="30">
+        <v>220.8</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="21">
+        <v>12.37</v>
+      </c>
+      <c r="F15" s="32">
+        <v>2.9969999999999999</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="21">
+        <v>1141</v>
+      </c>
+      <c r="I15" s="32">
+        <v>312.3</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="21">
+        <v>1055</v>
+      </c>
+      <c r="L15" s="32">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="8">
+        <v>46</v>
+      </c>
+      <c r="F16" s="30">
+        <v>3</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1562</v>
+      </c>
+      <c r="I16" s="30">
+        <v>405.8</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1476</v>
+      </c>
+      <c r="L16" s="30">
+        <v>50.75</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="8">
-        <v>1060</v>
-      </c>
-      <c r="L11" s="8">
-        <v>17.52</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11" t="s">
+      <c r="D17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="31">
+        <v>2.9609999999999999</v>
+      </c>
+      <c r="F17" s="31">
+        <v>4.07</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="31">
+        <v>83.17</v>
+      </c>
+      <c r="I17" s="31">
+        <v>90.07</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="10">
+        <v>412.5</v>
+      </c>
+      <c r="L17" s="31">
+        <v>91.15</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="12">
-        <v>32</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="E18" s="33">
         <v>3</v>
       </c>
-      <c r="G12" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="12">
-        <v>1568</v>
-      </c>
-      <c r="I12" s="12">
-        <v>401.8</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="12">
-        <v>1481</v>
-      </c>
-      <c r="L12" s="12">
-        <v>48</v>
-      </c>
-      <c r="M12" s="25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="14">
-        <v>2.9660000000000002</v>
-      </c>
-      <c r="F13" s="14">
-        <v>4.0890000000000004</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="14">
-        <v>85.82</v>
-      </c>
-      <c r="I13" s="14">
-        <v>93.38</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="14">
-        <v>435.4</v>
-      </c>
-      <c r="L13" s="14">
-        <v>95.24</v>
-      </c>
-      <c r="M13" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="12">
-        <v>3</v>
-      </c>
-      <c r="F14" s="12">
+      <c r="F18" s="33">
         <v>5</v>
       </c>
-      <c r="G14" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="12">
-        <v>156.5</v>
-      </c>
-      <c r="I14" s="12">
-        <v>173</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="12">
-        <v>942.3</v>
-      </c>
-      <c r="L14" s="12">
-        <v>220.8</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="27">
-        <v>12.37</v>
-      </c>
-      <c r="F15" s="27">
-        <v>2.9969999999999999</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="27">
-        <v>1141</v>
-      </c>
-      <c r="I15" s="27">
-        <v>312.3</v>
-      </c>
-      <c r="J15" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="27">
-        <v>1055</v>
-      </c>
-      <c r="L15" s="27">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="M15" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="12">
-        <v>46</v>
-      </c>
-      <c r="F16" s="12">
-        <v>3</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="12">
-        <v>1562</v>
-      </c>
-      <c r="I16" s="12">
-        <v>405.8</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="12">
-        <v>1476</v>
-      </c>
-      <c r="L16" s="12">
-        <v>50.75</v>
-      </c>
-      <c r="M16" s="25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="14">
-        <v>2.9609999999999999</v>
-      </c>
-      <c r="F17" s="14">
-        <v>4.07</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="14">
-        <v>83.17</v>
-      </c>
-      <c r="I17" s="14">
-        <v>90.07</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="14">
-        <v>412.5</v>
-      </c>
-      <c r="L17" s="14">
-        <v>91.15</v>
-      </c>
-      <c r="M17" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="23">
-        <v>3</v>
-      </c>
-      <c r="F18" s="23">
-        <v>5</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="23">
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="33">
         <v>152.80000000000001</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="33">
         <v>168</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="23">
+      <c r="J18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="17">
         <v>929.9</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="33">
         <v>222.8</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>20</v>
+      <c r="M18" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1233,8 +1295,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <webPublishItems count="1">
+  <webPublishItems count="2">
     <webPublishItem id="6029" divId="detection_times_6029" sourceType="range" sourceRef="A1:M18" destinationFile="C:\Users\gabriel_odom\Documents\GitHub\QPRC_Presentation\detection_times.htm"/>
+    <webPublishItem id="13465" divId="detection_times_13465" sourceType="range" sourceRef="B1:M18" destinationFile="C:\Users\gabriel_odom\Documents\GitHub\QPRC_Presentation\detection_times.htm"/>
   </webPublishItems>
 </worksheet>
 </file>